--- a/Prime_Job_Automation/Configuration/Lookups/PreBatchScriptFileLocation.xlsx
+++ b/Prime_Job_Automation/Configuration/Lookups/PreBatchScriptFileLocation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\PJA\Prime_Job_Automation\Configuration\Lookups\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E3264B-50FA-45BF-9FA4-E12CAFB3C267}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76248452-2715-4801-B04F-DA6083ED0624}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -131,7 +131,7 @@
     <t>fd_GLConvertorOut</t>
   </si>
   <si>
-    <t>/custom/deployment/CREDIT/GLConv/out/</t>
+    <t>/custom/deployment/CREDIT/GLConv/output/</t>
   </si>
 </sst>
 </file>

--- a/Prime_Job_Automation/Configuration/Lookups/PreBatchScriptFileLocation.xlsx
+++ b/Prime_Job_Automation/Configuration/Lookups/PreBatchScriptFileLocation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\PJA\Prime_Job_Automation\Configuration\Lookups\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76248452-2715-4801-B04F-DA6083ED0624}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43845CB-FB9F-4F15-939C-71454B4B3DC2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
   <si>
     <t>No</t>
   </si>
@@ -132,6 +132,21 @@
   </si>
   <si>
     <t>/custom/deployment/CREDIT/GLConv/output/</t>
+  </si>
+  <si>
+    <t>/prime/0000_cntr/mastercard_parameter_files/</t>
+  </si>
+  <si>
+    <t>fd_TT067UploadPath</t>
+  </si>
+  <si>
+    <t>Eds</t>
+  </si>
+  <si>
+    <t>fd_AutoDBSftpPath</t>
+  </si>
+  <si>
+    <t>/EDS/</t>
   </si>
 </sst>
 </file>
@@ -210,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -221,6 +236,7 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -535,7 +551,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -766,6 +782,42 @@
         <v>13</v>
       </c>
     </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C10" r:id="rId1" xr:uid="{F09FA75E-6E82-4DE0-8F18-9EAA63DCD9BC}"/>
